--- a/CompCars_Original/SwinBase/statsProp/Data_Full_EigenCAM_SwinBase_CompCars_Original_ocrnet_hr48_carparts_noflip_ShowPropArea_23_08_2022.xlsx
+++ b/CompCars_Original/SwinBase/statsProp/Data_Full_EigenCAM_SwinBase_CompCars_Original_ocrnet_hr48_carparts_noflip_ShowPropArea_23_08_2022.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,259 +436,321 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>segments</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>PercActivations</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>PercSegmentAreas</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>background</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>0.1243962916407687</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>0.3365718514973398</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>back_bumper</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>0.00632904325442166</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.006693558601720179</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>back_glass</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>0.007084914595333282</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>0.01923960726569185</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>back_left_door</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>0.005145823522122939</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0.004202819515640954</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>back_left_light</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>0.005818285533612922</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>0.004407771227443971</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>back_right_door</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>0.007019536747376503</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>0.00561351725119662</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>back_right_light</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>0.007682392169617335</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>0.005856581263861952</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>front_bumper</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>0.4631703771836273</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>0.2289109289474905</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>front_glass</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>0.0415215051257289</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>0.1936832406181643</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>front_left_door</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>0.003051020644993806</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>0.001816508462775329</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>front_left_light</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>0.0271772560967605</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>0.0146677320671856</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>front_right_door</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>0.003013115866504476</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>0.00183439196152098</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>front_right_light</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="C14" t="n">
         <v>0.02770149297809196</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>0.01419983133905514</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>hood</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>0.2619598843309622</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>0.1511630354932985</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>left_mirror</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>0.0004933110272418696</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>0.003833988049159126</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>right_mirror</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>0.0005057068745220898</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>0.003205786059830067</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>tailgate</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>0.0003980529083282664</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>0.0001659201237684006</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>trunk</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>0.007528552030924159</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>0.003889687883140958</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>wheel</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>3.437228010226829e-06</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>4.324237171618065e-05</v>
       </c>
     </row>
